--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1927,28 +1927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.3252093630715</v>
+        <v>415.7201447995473</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.1817126299231</v>
+        <v>568.8066423931382</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.2254228631542</v>
+        <v>514.5205347682728</v>
       </c>
       <c r="AD2" t="n">
-        <v>298325.2093630715</v>
+        <v>415720.1447995473</v>
       </c>
       <c r="AE2" t="n">
-        <v>408181.7126299231</v>
+        <v>568806.6423931381</v>
       </c>
       <c r="AF2" t="n">
         <v>6.477708564313063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>369225.4228631542</v>
+        <v>514520.5347682728</v>
       </c>
     </row>
     <row r="3">
@@ -2033,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.0966358088694</v>
+        <v>340.7020389451425</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.9331006113454</v>
+        <v>466.1635603978888</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.4945731145112</v>
+        <v>421.6735644581796</v>
       </c>
       <c r="AD3" t="n">
-        <v>233096.6358088694</v>
+        <v>340702.0389451425</v>
       </c>
       <c r="AE3" t="n">
-        <v>318933.1006113454</v>
+        <v>466163.5603978888</v>
       </c>
       <c r="AF3" t="n">
         <v>7.887232007902877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>288494.5731145113</v>
+        <v>421673.5644581796</v>
       </c>
     </row>
     <row r="4">
@@ -2139,28 +2139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.1053230249688</v>
+        <v>315.9563703096742</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.42132509038</v>
+        <v>432.3054448689893</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.9404126608025</v>
+        <v>391.0468199551947</v>
       </c>
       <c r="AD4" t="n">
-        <v>218105.3230249688</v>
+        <v>315956.3703096742</v>
       </c>
       <c r="AE4" t="n">
-        <v>298421.32509038</v>
+        <v>432305.4448689893</v>
       </c>
       <c r="AF4" t="n">
         <v>8.359142409549445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>269940.4126608025</v>
+        <v>391046.8199551947</v>
       </c>
     </row>
     <row r="5">
@@ -2245,28 +2245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.1422128369264</v>
+        <v>314.9932601216318</v>
       </c>
       <c r="AB5" t="n">
-        <v>297.1035552416783</v>
+        <v>430.9876750202869</v>
       </c>
       <c r="AC5" t="n">
-        <v>268.7484089169589</v>
+        <v>389.8548162113509</v>
       </c>
       <c r="AD5" t="n">
-        <v>217142.2128369264</v>
+        <v>314993.2601216318</v>
       </c>
       <c r="AE5" t="n">
-        <v>297103.5552416783</v>
+        <v>430987.6750202869</v>
       </c>
       <c r="AF5" t="n">
         <v>8.439481689931931e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH5" t="n">
-        <v>268748.4089169589</v>
+        <v>389854.8162113509</v>
       </c>
     </row>
   </sheetData>
@@ -2542,28 +2542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.771819099035</v>
+        <v>359.1563745237422</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.8535543967623</v>
+        <v>491.4135964843549</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.8457765737508</v>
+        <v>444.5137725392018</v>
       </c>
       <c r="AD2" t="n">
-        <v>252771.819099035</v>
+        <v>359156.3745237422</v>
       </c>
       <c r="AE2" t="n">
-        <v>345853.5543967623</v>
+        <v>491413.5964843549</v>
       </c>
       <c r="AF2" t="n">
         <v>8.008015617618325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>312845.7765737508</v>
+        <v>444513.7725392018</v>
       </c>
     </row>
     <row r="3">
@@ -2648,28 +2648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.6254935203274</v>
+        <v>310.3968196026303</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.2918247260035</v>
+        <v>424.6986223215451</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.3959032083923</v>
+        <v>384.165981875436</v>
       </c>
       <c r="AD3" t="n">
-        <v>213625.4935203274</v>
+        <v>310396.8196026303</v>
       </c>
       <c r="AE3" t="n">
-        <v>292291.8247260035</v>
+        <v>424698.6223215451</v>
       </c>
       <c r="AF3" t="n">
         <v>9.233621262323114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>264395.9032083923</v>
+        <v>384165.981875436</v>
       </c>
     </row>
     <row r="4">
@@ -2754,28 +2754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.7582291564154</v>
+        <v>298.8158516996866</v>
       </c>
       <c r="AB4" t="n">
-        <v>289.7369512454105</v>
+        <v>408.8530311204922</v>
       </c>
       <c r="AC4" t="n">
-        <v>262.084863266999</v>
+        <v>369.8326716591848</v>
       </c>
       <c r="AD4" t="n">
-        <v>211758.2291564154</v>
+        <v>298815.8516996866</v>
       </c>
       <c r="AE4" t="n">
-        <v>289736.9512454105</v>
+        <v>408853.0311204922</v>
       </c>
       <c r="AF4" t="n">
         <v>9.444450492676691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>262084.863266999</v>
+        <v>369832.6716591849</v>
       </c>
     </row>
   </sheetData>
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.0084518586008</v>
+        <v>283.1404677084375</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.2921434660728</v>
+        <v>387.4052791945306</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.3049634581742</v>
+        <v>350.4318630749281</v>
       </c>
       <c r="AD2" t="n">
-        <v>199008.4518586008</v>
+        <v>283140.4677084375</v>
       </c>
       <c r="AE2" t="n">
-        <v>272292.1434660729</v>
+        <v>387405.2791945306</v>
       </c>
       <c r="AF2" t="n">
         <v>1.324674566722977e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>246304.9634581742</v>
+        <v>350431.8630749281</v>
       </c>
     </row>
   </sheetData>
@@ -3348,28 +3348,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.5961692061962</v>
+        <v>300.3877050722068</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.3057489706262</v>
+        <v>411.003710250051</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.4583231040506</v>
+        <v>371.7780929911156</v>
       </c>
       <c r="AD2" t="n">
-        <v>205596.1692061962</v>
+        <v>300387.7050722068</v>
       </c>
       <c r="AE2" t="n">
-        <v>281305.7489706262</v>
+        <v>411003.710250051</v>
       </c>
       <c r="AF2" t="n">
         <v>1.12029623911779e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>254458.3231040506</v>
+        <v>371778.0929911156</v>
       </c>
     </row>
     <row r="3">
@@ -3454,28 +3454,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.9980538256975</v>
+        <v>288.7554242729271</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.4366958342972</v>
+        <v>395.0879104804661</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.1037901266919</v>
+        <v>357.3812748135746</v>
       </c>
       <c r="AD3" t="n">
-        <v>193998.0538256975</v>
+        <v>288755.4242729271</v>
       </c>
       <c r="AE3" t="n">
-        <v>265436.6958342972</v>
+        <v>395087.9104804661</v>
       </c>
       <c r="AF3" t="n">
         <v>1.160104407565555e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>240103.7901266919</v>
+        <v>357381.2748135746</v>
       </c>
     </row>
   </sheetData>
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.6864824511561</v>
+        <v>288.1647489441494</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.7468783678623</v>
+        <v>394.279722436876</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.1934920816158</v>
+        <v>356.6502191025658</v>
       </c>
       <c r="AD2" t="n">
-        <v>195686.4824511561</v>
+        <v>288164.7489441494</v>
       </c>
       <c r="AE2" t="n">
-        <v>267746.8783678623</v>
+        <v>394279.722436876</v>
       </c>
       <c r="AF2" t="n">
         <v>1.479206707948771e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>242193.4920816158</v>
+        <v>356650.2191025658</v>
       </c>
     </row>
   </sheetData>
@@ -4048,28 +4048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.2781270565866</v>
+        <v>373.0090229359766</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.3334808007013</v>
+        <v>510.3674011776901</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.5620047383335</v>
+        <v>461.6586527144369</v>
       </c>
       <c r="AD2" t="n">
-        <v>266278.1270565866</v>
+        <v>373009.0229359766</v>
       </c>
       <c r="AE2" t="n">
-        <v>364333.4808007013</v>
+        <v>510367.4011776901</v>
       </c>
       <c r="AF2" t="n">
         <v>7.589777752769329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>329562.0047383335</v>
+        <v>461658.6527144369</v>
       </c>
     </row>
     <row r="3">
@@ -4154,28 +4154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.5951843505501</v>
+        <v>323.5829861123353</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.037527902282</v>
+        <v>442.7405170727332</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.4479813797834</v>
+        <v>400.4859835135291</v>
       </c>
       <c r="AD3" t="n">
-        <v>226595.1843505501</v>
+        <v>323582.9861123353</v>
       </c>
       <c r="AE3" t="n">
-        <v>310037.527902282</v>
+        <v>442740.5170727331</v>
       </c>
       <c r="AF3" t="n">
         <v>8.760099087446817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>280447.9813797834</v>
+        <v>400485.9835135291</v>
       </c>
     </row>
     <row r="4">
@@ -4260,28 +4260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.7829893834692</v>
+        <v>300.0960278652083</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.1390733972953</v>
+        <v>410.6046246275454</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.3531688485991</v>
+        <v>371.4170955403018</v>
       </c>
       <c r="AD4" t="n">
-        <v>212782.9893834692</v>
+        <v>300096.0278652083</v>
       </c>
       <c r="AE4" t="n">
-        <v>291139.0733972953</v>
+        <v>410604.6246275454</v>
       </c>
       <c r="AF4" t="n">
         <v>9.1881743936315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>263353.1688485991</v>
+        <v>371417.0955403018</v>
       </c>
     </row>
   </sheetData>
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.3597094540439</v>
+        <v>295.1534078588462</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.2457260720921</v>
+        <v>403.8419138818354</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.6903444961825</v>
+        <v>365.2998084166383</v>
       </c>
       <c r="AD2" t="n">
-        <v>203359.7094540439</v>
+        <v>295153.4078588461</v>
       </c>
       <c r="AE2" t="n">
-        <v>278245.7260720921</v>
+        <v>403841.9138818354</v>
       </c>
       <c r="AF2" t="n">
         <v>1.566925750923631e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>251690.3444961825</v>
+        <v>365299.8084166383</v>
       </c>
     </row>
   </sheetData>
@@ -4854,28 +4854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.6084176945722</v>
+        <v>342.047133895318</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.7380755162441</v>
+        <v>468.0039786501198</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.8409679583126</v>
+        <v>423.3383357754611</v>
       </c>
       <c r="AD2" t="n">
-        <v>236608.4176945722</v>
+        <v>342047.133895318</v>
       </c>
       <c r="AE2" t="n">
-        <v>323738.075516244</v>
+        <v>468003.9786501199</v>
       </c>
       <c r="AF2" t="n">
         <v>9.042847213439531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>292840.9679583126</v>
+        <v>423338.335775461</v>
       </c>
     </row>
     <row r="3">
@@ -4960,28 +4960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.1282849515457</v>
+        <v>293.944391949917</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.0878602736171</v>
+        <v>402.1876849772211</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.215615363384</v>
+        <v>363.8034567969553</v>
       </c>
       <c r="AD3" t="n">
-        <v>198128.2849515456</v>
+        <v>293944.391949917</v>
       </c>
       <c r="AE3" t="n">
-        <v>271087.8602736171</v>
+        <v>402187.6849772211</v>
       </c>
       <c r="AF3" t="n">
         <v>1.037107903802275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>245215.615363384</v>
+        <v>363803.4567969553</v>
       </c>
     </row>
   </sheetData>
@@ -5257,28 +5257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.8794988675137</v>
+        <v>346.0073282164653</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.2137130869768</v>
+        <v>473.4224912317566</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.8894569608928</v>
+        <v>428.2397131212367</v>
       </c>
       <c r="AD2" t="n">
-        <v>239879.4988675138</v>
+        <v>346007.3282164654</v>
       </c>
       <c r="AE2" t="n">
-        <v>328213.7130869768</v>
+        <v>473422.4912317566</v>
       </c>
       <c r="AF2" t="n">
         <v>8.427288201723583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>296889.4569608928</v>
+        <v>428239.7131212367</v>
       </c>
     </row>
     <row r="3">
@@ -5363,28 +5363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.0048271406777</v>
+        <v>297.7973212338454</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.7061133697276</v>
+        <v>407.4594328027353</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.1524071113808</v>
+        <v>368.5720764089472</v>
       </c>
       <c r="AD3" t="n">
-        <v>211004.8271406777</v>
+        <v>297797.3212338454</v>
       </c>
       <c r="AE3" t="n">
-        <v>288706.1133697276</v>
+        <v>407459.4328027353</v>
       </c>
       <c r="AF3" t="n">
         <v>9.656655511255621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>261152.4071113808</v>
+        <v>368572.0764089472</v>
       </c>
     </row>
     <row r="4">
@@ -5469,28 +5469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.6794208104322</v>
+        <v>297.4719149036</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.2608780727719</v>
+        <v>407.0141975057795</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.7496644462748</v>
+        <v>368.1693337438411</v>
       </c>
       <c r="AD4" t="n">
-        <v>210679.4208104323</v>
+        <v>297471.9149035999</v>
       </c>
       <c r="AE4" t="n">
-        <v>288260.8780727719</v>
+        <v>407014.1975057794</v>
       </c>
       <c r="AF4" t="n">
         <v>9.706674915635084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>260749.6644462747</v>
+        <v>368169.3337438411</v>
       </c>
     </row>
   </sheetData>
@@ -5766,28 +5766,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.5418411921412</v>
+        <v>401.6958609133954</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.3227002191686</v>
+        <v>549.6179984723665</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.1662881280919</v>
+        <v>497.1632280918687</v>
       </c>
       <c r="AD2" t="n">
-        <v>284541.8411921412</v>
+        <v>401695.8609133955</v>
       </c>
       <c r="AE2" t="n">
-        <v>389322.7002191686</v>
+        <v>549617.9984723665</v>
       </c>
       <c r="AF2" t="n">
         <v>6.794887069996418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>352166.288128092</v>
+        <v>497163.2280918687</v>
       </c>
     </row>
     <row r="3">
@@ -5872,28 +5872,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.2352586846892</v>
+        <v>327.7621232259188</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.0180381949946</v>
+        <v>448.4585968420552</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.9531587603511</v>
+        <v>405.6583377750425</v>
       </c>
       <c r="AD3" t="n">
-        <v>230235.2586846892</v>
+        <v>327762.1232259188</v>
       </c>
       <c r="AE3" t="n">
-        <v>315018.0381949946</v>
+        <v>448458.5968420552</v>
       </c>
       <c r="AF3" t="n">
         <v>8.233815913901194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>284953.1587603511</v>
+        <v>405658.3377750425</v>
       </c>
     </row>
     <row r="4">
@@ -5978,28 +5978,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.9297733576252</v>
+        <v>313.523957706559</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.4446420570445</v>
+        <v>428.9773106349365</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.2478200783667</v>
+        <v>388.0363181813743</v>
       </c>
       <c r="AD4" t="n">
-        <v>215929.7733576252</v>
+        <v>313523.957706559</v>
       </c>
       <c r="AE4" t="n">
-        <v>295444.6420570445</v>
+        <v>428977.3106349366</v>
       </c>
       <c r="AF4" t="n">
         <v>8.630681177015271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>267247.8200783667</v>
+        <v>388036.3181813743</v>
       </c>
     </row>
     <row r="5">
@@ -6084,28 +6084,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.5695207638688</v>
+        <v>303.3677157471078</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.9517285650444</v>
+        <v>415.0810923242428</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.8019495582346</v>
+        <v>375.4663354427883</v>
       </c>
       <c r="AD5" t="n">
-        <v>215569.5207638688</v>
+        <v>303367.7157471078</v>
       </c>
       <c r="AE5" t="n">
-        <v>294951.7285650445</v>
+        <v>415081.0923242428</v>
       </c>
       <c r="AF5" t="n">
         <v>8.695717856567455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>266801.9495582347</v>
+        <v>375466.3354427883</v>
       </c>
     </row>
   </sheetData>
@@ -6381,28 +6381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.8949272606946</v>
+        <v>313.9908619262728</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.5016964405799</v>
+        <v>429.6161495867094</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.9176748856504</v>
+        <v>388.614187240206</v>
       </c>
       <c r="AD2" t="n">
-        <v>218894.9272606946</v>
+        <v>313990.8619262727</v>
       </c>
       <c r="AE2" t="n">
-        <v>299501.6964405799</v>
+        <v>429616.1495867094</v>
       </c>
       <c r="AF2" t="n">
         <v>1.041685304162988e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>270917.6748856504</v>
+        <v>388614.1872402061</v>
       </c>
     </row>
     <row r="3">
@@ -6487,28 +6487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.3430452867226</v>
+        <v>290.9534033818753</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.9594136569632</v>
+        <v>398.0952824653236</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.1450415466389</v>
+        <v>360.1016274370704</v>
       </c>
       <c r="AD3" t="n">
-        <v>205343.0452867226</v>
+        <v>290953.4033818753</v>
       </c>
       <c r="AE3" t="n">
-        <v>280959.4136569633</v>
+        <v>398095.2824653236</v>
       </c>
       <c r="AF3" t="n">
         <v>1.107399007105959e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>254145.0415466389</v>
+        <v>360101.6274370704</v>
       </c>
     </row>
   </sheetData>
@@ -6784,28 +6784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.0070793755977</v>
+        <v>284.9480822245066</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.3443126391927</v>
+        <v>389.8785371217405</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.401978240031</v>
+        <v>352.6690767368044</v>
       </c>
       <c r="AD2" t="n">
-        <v>191007.0793755977</v>
+        <v>284948.0822245066</v>
       </c>
       <c r="AE2" t="n">
-        <v>261344.3126391927</v>
+        <v>389878.5371217405</v>
       </c>
       <c r="AF2" t="n">
         <v>1.262835048250822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>236401.978240031</v>
+        <v>352669.0767368043</v>
       </c>
     </row>
   </sheetData>
@@ -11342,28 +11342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.2923572959148</v>
+        <v>280.9787442470836</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.9441071766582</v>
+        <v>384.4475137861976</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.1810204567309</v>
+        <v>347.7563826459167</v>
       </c>
       <c r="AD2" t="n">
-        <v>197292.3572959148</v>
+        <v>280978.7442470836</v>
       </c>
       <c r="AE2" t="n">
-        <v>269944.1071766582</v>
+        <v>384447.5137861976</v>
       </c>
       <c r="AF2" t="n">
         <v>1.399469863962128e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>244181.0204567309</v>
+        <v>347756.3826459167</v>
       </c>
     </row>
   </sheetData>
@@ -11639,28 +11639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.5930772598219</v>
+        <v>301.7029119740095</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.1427390176182</v>
+        <v>412.8032343559309</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.6428004167357</v>
+        <v>373.4058730419782</v>
       </c>
       <c r="AD2" t="n">
-        <v>210593.0772598218</v>
+        <v>301702.9119740095</v>
       </c>
       <c r="AE2" t="n">
-        <v>288142.7390176182</v>
+        <v>412803.2343559309</v>
       </c>
       <c r="AF2" t="n">
         <v>1.673703646418282e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>260642.8004167357</v>
+        <v>373405.8730419782</v>
       </c>
     </row>
   </sheetData>
@@ -11936,28 +11936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.3286586838557</v>
+        <v>343.1192803794669</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.7235410125711</v>
+        <v>469.4709367694971</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.7323820107799</v>
+        <v>424.6652894708137</v>
       </c>
       <c r="AD2" t="n">
-        <v>237328.6586838557</v>
+        <v>343119.2803794669</v>
       </c>
       <c r="AE2" t="n">
-        <v>324723.5410125711</v>
+        <v>469470.9367694971</v>
       </c>
       <c r="AF2" t="n">
         <v>8.832207899396344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>293732.3820107799</v>
+        <v>424665.2894708137</v>
       </c>
     </row>
     <row r="3">
@@ -12042,28 +12042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.1828413702019</v>
+        <v>295.6994382924548</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.2131920582246</v>
+        <v>404.5890168102613</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.8974067110098</v>
+        <v>365.9756088901408</v>
       </c>
       <c r="AD3" t="n">
-        <v>209182.8413702019</v>
+        <v>295699.4382924548</v>
       </c>
       <c r="AE3" t="n">
-        <v>286213.1920582246</v>
+        <v>404589.0168102613</v>
       </c>
       <c r="AF3" t="n">
         <v>1.000969178890596e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>258897.4067110098</v>
+        <v>365975.6088901408</v>
       </c>
     </row>
     <row r="4">
@@ -12148,28 +12148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.3312642423639</v>
+        <v>295.8478611646168</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.4162707798716</v>
+        <v>404.7920955319084</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.0811038844857</v>
+        <v>366.1593060636167</v>
       </c>
       <c r="AD4" t="n">
-        <v>209331.2642423639</v>
+        <v>295847.8611646168</v>
       </c>
       <c r="AE4" t="n">
-        <v>286416.2707798716</v>
+        <v>404792.0955319084</v>
       </c>
       <c r="AF4" t="n">
         <v>1.000614242556504e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>259081.1038844857</v>
+        <v>366159.3060636166</v>
       </c>
     </row>
   </sheetData>
@@ -12445,28 +12445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.2717340256959</v>
+        <v>387.0735141224341</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.7977100413416</v>
+        <v>529.6110585005611</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.504735609341</v>
+        <v>479.0657223910558</v>
       </c>
       <c r="AD2" t="n">
-        <v>270271.7340256959</v>
+        <v>387073.5141224341</v>
       </c>
       <c r="AE2" t="n">
-        <v>369797.7100413416</v>
+        <v>529611.058500561</v>
       </c>
       <c r="AF2" t="n">
         <v>7.19385928364896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>334504.7356093409</v>
+        <v>479065.7223910558</v>
       </c>
     </row>
     <row r="3">
@@ -12551,28 +12551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.9698743341979</v>
+        <v>325.2316770373147</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.9184393849499</v>
+        <v>444.9963287314001</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.1493813104218</v>
+        <v>402.5265036735445</v>
       </c>
       <c r="AD3" t="n">
-        <v>227969.8743341979</v>
+        <v>325231.6770373147</v>
       </c>
       <c r="AE3" t="n">
-        <v>311918.4393849499</v>
+        <v>444996.3287314001</v>
       </c>
       <c r="AF3" t="n">
         <v>8.545282300438297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>282149.3813104218</v>
+        <v>402526.5036735445</v>
       </c>
     </row>
     <row r="4">
@@ -12657,28 +12657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.3569976235519</v>
+        <v>301.9166369524894</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.292700911718</v>
+        <v>413.0956623003677</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.3012571756813</v>
+        <v>373.6703920738233</v>
       </c>
       <c r="AD4" t="n">
-        <v>214356.9976235519</v>
+        <v>301916.6369524894</v>
       </c>
       <c r="AE4" t="n">
-        <v>293292.7009117181</v>
+        <v>413095.6623003677</v>
       </c>
       <c r="AF4" t="n">
         <v>8.912977525155245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>265301.2571756812</v>
+        <v>373670.3920738233</v>
       </c>
     </row>
   </sheetData>
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.9767229425167</v>
+        <v>335.2985898165845</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.5595658361052</v>
+        <v>458.7703229168444</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.9201967458874</v>
+        <v>414.9859271858522</v>
       </c>
       <c r="AD2" t="n">
-        <v>226976.7229425167</v>
+        <v>335298.5898165845</v>
       </c>
       <c r="AE2" t="n">
-        <v>310559.5658361051</v>
+        <v>458770.3229168444</v>
       </c>
       <c r="AF2" t="n">
         <v>1.752710648978573e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>280920.1967458874</v>
+        <v>414985.9271858522</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.5362014822667</v>
+        <v>287.4568524191955</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.1189661344994</v>
+        <v>393.3111471812435</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.6711209456158</v>
+        <v>355.774083309927</v>
       </c>
       <c r="AD2" t="n">
-        <v>202536.2014822667</v>
+        <v>287456.8524191955</v>
       </c>
       <c r="AE2" t="n">
-        <v>277118.9661344994</v>
+        <v>393311.1471812435</v>
       </c>
       <c r="AF2" t="n">
         <v>1.197545393424611e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>250671.1209456158</v>
+        <v>355774.083309927</v>
       </c>
     </row>
     <row r="3">
@@ -13357,28 +13357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.4503434866947</v>
+        <v>286.8130912542807</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.3190502683134</v>
+        <v>392.4303247546689</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.1882496813907</v>
+        <v>354.9773253395026</v>
       </c>
       <c r="AD3" t="n">
-        <v>192450.3434866947</v>
+        <v>286813.0912542806</v>
       </c>
       <c r="AE3" t="n">
-        <v>263319.0502683134</v>
+        <v>392430.3247546689</v>
       </c>
       <c r="AF3" t="n">
         <v>1.212233691104114e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>238188.2496813907</v>
+        <v>354977.3253395025</v>
       </c>
     </row>
   </sheetData>
@@ -13654,28 +13654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.4833976342959</v>
+        <v>327.5194942370812</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.4115999178785</v>
+        <v>448.126621155492</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.35898406617</v>
+        <v>405.358045382074</v>
       </c>
       <c r="AD2" t="n">
-        <v>222483.3976342959</v>
+        <v>327519.4942370811</v>
       </c>
       <c r="AE2" t="n">
-        <v>304411.5999178785</v>
+        <v>448126.621155492</v>
       </c>
       <c r="AF2" t="n">
         <v>9.726613262207004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>275358.9840661699</v>
+        <v>405358.045382074</v>
       </c>
     </row>
     <row r="3">
@@ -13760,28 +13760,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.5779189131992</v>
+        <v>292.0590675668619</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.9665810626302</v>
+        <v>399.6081009816835</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.2967880630589</v>
+        <v>361.470064677483</v>
       </c>
       <c r="AD3" t="n">
-        <v>196577.9189131992</v>
+        <v>292059.0675668619</v>
       </c>
       <c r="AE3" t="n">
-        <v>268966.5810626302</v>
+        <v>399608.1009816835</v>
       </c>
       <c r="AF3" t="n">
         <v>1.07806370484903e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>243296.7880630589</v>
+        <v>361470.0646774831</v>
       </c>
     </row>
   </sheetData>
